--- a/Aufgabenverteilung.xlsx
+++ b/Aufgabenverteilung.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECFF4B3-9770-4CF9-8FFE-9ABD2550AB0C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1F377C6-18AA-4E6D-8476-8622A99ED23C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3570" yWindow="1305" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Zukünftige Aufgaben</t>
+  </si>
+  <si>
+    <t>User Stories finden</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
@@ -428,6 +430,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -711,130 +714,128 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.65" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18">
         <v>43545</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="20"/>
+      <c r="G3" s="19"/>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="20"/>
+      <c r="G4" s="19"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="20"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="21"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="13"/>
+      <c r="G6" s="21">
+        <v>43558</v>
+      </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -844,7 +845,7 @@
       <c r="G7" s="9"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -854,7 +855,7 @@
       <c r="G8" s="9"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -864,7 +865,7 @@
       <c r="G9" s="9"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -874,7 +875,7 @@
       <c r="G10" s="9"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -884,7 +885,7 @@
       <c r="G11" s="9"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -894,7 +895,7 @@
       <c r="G12" s="9"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -904,7 +905,7 @@
       <c r="G13" s="9"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -914,7 +915,7 @@
       <c r="G14" s="9"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -924,7 +925,7 @@
       <c r="G15" s="9"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -934,7 +935,7 @@
       <c r="G16" s="9"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -944,7 +945,7 @@
       <c r="G17" s="9"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -954,7 +955,7 @@
       <c r="G18" s="9"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -964,7 +965,7 @@
       <c r="G19" s="9"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -974,7 +975,7 @@
       <c r="G20" s="9"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -984,7 +985,7 @@
       <c r="G21" s="9"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -994,7 +995,7 @@
       <c r="G22" s="9"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1004,7 +1005,7 @@
       <c r="G23" s="9"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1014,7 +1015,7 @@
       <c r="G24" s="9"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1024,7 +1025,7 @@
       <c r="G25" s="9"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1034,7 +1035,7 @@
       <c r="G26" s="9"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1044,7 +1045,7 @@
       <c r="G27" s="9"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="15.65" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1054,7 +1055,7 @@
       <c r="G28" s="12"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="15.65" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G2:G5"/>
